--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H2">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>0.1481793400533334</v>
+        <v>0.7551162638924444</v>
       </c>
       <c r="R2">
-        <v>1.33361406048</v>
+        <v>6.796046375032</v>
       </c>
       <c r="S2">
-        <v>0.01778590462179611</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="T2">
-        <v>0.01778590462179611</v>
+        <v>0.1222087640673552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H3">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>1.594243869111111</v>
+        <v>4.535804398997223</v>
       </c>
       <c r="R3">
-        <v>14.348194822</v>
+        <v>40.82223959097499</v>
       </c>
       <c r="S3">
-        <v>0.1913564292409978</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="T3">
-        <v>0.1913564292409978</v>
+        <v>0.7340790765058635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H4">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.006682132542222222</v>
+        <v>0.02392422275977778</v>
       </c>
       <c r="R4">
-        <v>0.06013919288</v>
+        <v>0.215318004838</v>
       </c>
       <c r="S4">
-        <v>0.0008020535927841778</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="T4">
-        <v>0.0008020535927841778</v>
+        <v>0.003871919907635547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H5">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I5">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>1.11005190504</v>
+        <v>0.7383334901947778</v>
       </c>
       <c r="R5">
-        <v>9.990467145359998</v>
+        <v>6.645001411753</v>
       </c>
       <c r="S5">
-        <v>0.1332390689631796</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="T5">
-        <v>0.1332390689631796</v>
+        <v>0.1194926233493133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H6">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I6">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.01931235245333333</v>
+        <v>0.05451982840544445</v>
       </c>
       <c r="R6">
-        <v>0.17381117208</v>
+        <v>0.490678455649</v>
       </c>
       <c r="S6">
-        <v>0.002318053641174723</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="T6">
-        <v>0.002318053641174723</v>
+        <v>0.00882354302931909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H7">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I7">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.03103029233777778</v>
+        <v>0.07120614565655556</v>
       </c>
       <c r="R7">
-        <v>0.27927263104</v>
+        <v>0.6408553109089999</v>
       </c>
       <c r="S7">
-        <v>0.003724553096993977</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="T7">
-        <v>0.003724553096993976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.141475</v>
-      </c>
-      <c r="I8">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J8">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>5.855348</v>
-      </c>
-      <c r="N8">
-        <v>17.566044</v>
-      </c>
-      <c r="O8">
-        <v>0.05092948808292105</v>
-      </c>
-      <c r="P8">
-        <v>0.05092948808292105</v>
-      </c>
-      <c r="Q8">
-        <v>0.2761284527666666</v>
-      </c>
-      <c r="R8">
-        <v>2.4851560749</v>
-      </c>
-      <c r="S8">
-        <v>0.03314358346112493</v>
-      </c>
-      <c r="T8">
-        <v>0.03314358346112493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.141475</v>
-      </c>
-      <c r="I9">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J9">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>62.99699166666667</v>
-      </c>
-      <c r="N9">
-        <v>188.990975</v>
-      </c>
-      <c r="O9">
-        <v>0.547944295769846</v>
-      </c>
-      <c r="P9">
-        <v>0.547944295769846</v>
-      </c>
-      <c r="Q9">
-        <v>2.970833132013889</v>
-      </c>
-      <c r="R9">
-        <v>26.737498188125</v>
-      </c>
-      <c r="S9">
-        <v>0.3565878665288482</v>
-      </c>
-      <c r="T9">
-        <v>0.3565878665288482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.141475</v>
-      </c>
-      <c r="I10">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J10">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.2640463333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.7921389999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.002296660179179615</v>
-      </c>
-      <c r="P10">
-        <v>0.002296660179179615</v>
-      </c>
-      <c r="Q10">
-        <v>0.01245198500277778</v>
-      </c>
-      <c r="R10">
-        <v>0.112067865025</v>
-      </c>
-      <c r="S10">
-        <v>0.001494606586395437</v>
-      </c>
-      <c r="T10">
-        <v>0.001494606586395437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.141475</v>
-      </c>
-      <c r="I11">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J11">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>43.864011</v>
-      </c>
-      <c r="N11">
-        <v>131.592033</v>
-      </c>
-      <c r="O11">
-        <v>0.3815267043894944</v>
-      </c>
-      <c r="P11">
-        <v>0.3815267043894944</v>
-      </c>
-      <c r="Q11">
-        <v>2.068553652075</v>
-      </c>
-      <c r="R11">
-        <v>18.616982868675</v>
-      </c>
-      <c r="S11">
-        <v>0.2482876354263149</v>
-      </c>
-      <c r="T11">
-        <v>0.2482876354263149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.141475</v>
-      </c>
-      <c r="I12">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J12">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.763133</v>
-      </c>
-      <c r="N12">
-        <v>2.289399</v>
-      </c>
-      <c r="O12">
-        <v>0.006637687978440185</v>
-      </c>
-      <c r="P12">
-        <v>0.006637687978440185</v>
-      </c>
-      <c r="Q12">
-        <v>0.03598808039166666</v>
-      </c>
-      <c r="R12">
-        <v>0.323892723525</v>
-      </c>
-      <c r="S12">
-        <v>0.004319634337265462</v>
-      </c>
-      <c r="T12">
-        <v>0.004319634337265462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.141475</v>
-      </c>
-      <c r="I13">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J13">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.226170666666667</v>
-      </c>
-      <c r="N13">
-        <v>3.678512</v>
-      </c>
-      <c r="O13">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="P13">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="Q13">
-        <v>0.05782416502222222</v>
-      </c>
-      <c r="R13">
-        <v>0.5204174852</v>
-      </c>
-      <c r="S13">
-        <v>0.006940610503124642</v>
-      </c>
-      <c r="T13">
-        <v>0.006940610503124641</v>
+        <v>0.01152407314051338</v>
       </c>
     </row>
   </sheetData>
